--- a/158-nos-gérer-les-dépendances-nos-en-current-ou-maj-du-package-manuel/ig/StructureDefinition-sdo-task.xlsx
+++ b/158-nos-gérer-les-dépendances-nos-en-current-ou-maj-du-package-manuel/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:56:58+00:00</t>
+    <t>2024-09-27T08:29:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
